--- a/1/Результаты.xlsx
+++ b/1/Результаты.xlsx
@@ -88,10 +88,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>3.3998</v>
+        <v>3.039</v>
       </c>
       <c r="C2" s="0">
-        <v>5096.8313</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="3">
@@ -99,10 +99,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0215</v>
+        <v>1.0957</v>
       </c>
       <c r="C3" s="0">
-        <v>8032.3315</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="4">
@@ -110,10 +110,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>3.2058</v>
+        <v>1.6782</v>
       </c>
       <c r="C4" s="0">
-        <v>12883.5049</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="5">
@@ -121,10 +121,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>4.1918</v>
+        <v>2.3152</v>
       </c>
       <c r="C5" s="0">
-        <v>9973.7821</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="6">
@@ -132,10 +132,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>3.1235</v>
+        <v>2.766</v>
       </c>
       <c r="C6" s="0">
-        <v>10036.5885</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="7">
@@ -143,10 +143,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>4.4105</v>
+        <v>3.2805</v>
       </c>
       <c r="C7" s="0">
-        <v>12037.202</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="8">
@@ -154,10 +154,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>4.9221</v>
+        <v>3.826</v>
       </c>
       <c r="C8" s="0">
-        <v>14886.6398</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="9">
@@ -165,10 +165,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>5.5739</v>
+        <v>4.3279</v>
       </c>
       <c r="C9" s="0">
-        <v>18408.0496</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="10">
@@ -176,10 +176,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>6.8362</v>
+        <v>4.8511</v>
       </c>
       <c r="C10" s="0">
-        <v>22545.4552</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="11">
@@ -187,10 +187,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>9.49</v>
+        <v>5.2442</v>
       </c>
       <c r="C11" s="0">
-        <v>24447.5075</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="12">
@@ -198,10 +198,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>8.4071</v>
+        <v>5.9447</v>
       </c>
       <c r="C12" s="0">
-        <v>24801.1666</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="13">
@@ -209,10 +209,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>10.6188</v>
+        <v>6.4586</v>
       </c>
       <c r="C13" s="0">
-        <v>37290.1914</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>13.3194</v>
+        <v>7.1494</v>
       </c>
       <c r="C14" s="0">
-        <v>33705.7552</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>14.1591</v>
+        <v>7.7405</v>
       </c>
       <c r="C15" s="0">
-        <v>42122.1538</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>13.41</v>
+        <v>8.2905</v>
       </c>
       <c r="C16" s="0">
-        <v>42137.5211</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>17.4583</v>
+        <v>8.9811</v>
       </c>
       <c r="C17" s="0">
-        <v>48553.3934</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>15.2285</v>
+        <v>9.645</v>
       </c>
       <c r="C18" s="0">
-        <v>51539.3161</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>14.196</v>
+        <v>9.9267</v>
       </c>
       <c r="C19" s="0">
-        <v>48339.4838</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>19.5586</v>
+        <v>10.0507</v>
       </c>
       <c r="C20" s="0">
-        <v>49990.4349</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>18.2291</v>
-      </c>
-      <c r="C21" s="0">
-        <v>61768.5668</v>
+        <v>10.5133</v>
       </c>
     </row>
   </sheetData>

--- a/1/Результаты.xlsx
+++ b/1/Результаты.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Количество фрагментов</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Время выполнения (мс) - Многопоточное</t>
+  </si>
+  <si>
+    <t>Время выполнения (мс) - Многопоточное(статика)</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -82,16 +85,22 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>3.039</v>
+        <v>4.601</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0028</v>
+        <v>1.048</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.9459</v>
       </c>
     </row>
     <row r="3">
@@ -99,10 +108,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0957</v>
+        <v>1.5752</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0012</v>
+        <v>5.8843</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1.7065</v>
       </c>
     </row>
     <row r="4">
@@ -110,10 +122,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>1.6782</v>
+        <v>2.369</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0011</v>
+        <v>3.1138</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4.9921</v>
       </c>
     </row>
     <row r="5">
@@ -121,10 +136,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>2.3152</v>
+        <v>3.1375</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0008</v>
+        <v>3.6836</v>
+      </c>
+      <c r="D5" s="0">
+        <v>5.8833</v>
       </c>
     </row>
     <row r="6">
@@ -132,10 +150,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>2.766</v>
+        <v>4.0929</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0009</v>
+        <v>7.1888</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5.5715</v>
       </c>
     </row>
     <row r="7">
@@ -143,10 +164,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>3.2805</v>
+        <v>4.7435</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0028</v>
+        <v>6.3597</v>
+      </c>
+      <c r="D7" s="0">
+        <v>5.6503</v>
       </c>
     </row>
     <row r="8">
@@ -154,10 +178,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>3.826</v>
+        <v>5.4986</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0117</v>
+        <v>6.4379</v>
+      </c>
+      <c r="D8" s="0">
+        <v>6.842</v>
       </c>
     </row>
     <row r="9">
@@ -165,10 +192,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>4.3279</v>
+        <v>8.2064</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0011</v>
+        <v>22.723</v>
+      </c>
+      <c r="D9" s="0">
+        <v>8.6116</v>
       </c>
     </row>
     <row r="10">
@@ -176,10 +206,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>4.8511</v>
+        <v>7.8612</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0032</v>
+        <v>8.9134</v>
+      </c>
+      <c r="D10" s="0">
+        <v>13.1616</v>
       </c>
     </row>
     <row r="11">
@@ -187,10 +220,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>5.2442</v>
+        <v>8.4555</v>
       </c>
       <c r="C11" s="0">
-        <v>0.0012</v>
+        <v>11.2999</v>
+      </c>
+      <c r="D11" s="0">
+        <v>10.8619</v>
       </c>
     </row>
     <row r="12">
@@ -198,10 +234,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>5.9447</v>
+        <v>10.2147</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0012</v>
+        <v>19.3221</v>
+      </c>
+      <c r="D12" s="0">
+        <v>15.4329</v>
       </c>
     </row>
     <row r="13">
@@ -209,10 +248,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>6.4586</v>
+        <v>10.2695</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0013</v>
+        <v>11.122</v>
+      </c>
+      <c r="D13" s="0">
+        <v>11.7241</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +262,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>7.1494</v>
+        <v>10.5231</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0013</v>
+        <v>12.3894</v>
+      </c>
+      <c r="D14" s="0">
+        <v>11.9366</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +276,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>7.7405</v>
+        <v>11.6984</v>
       </c>
       <c r="C15" s="0">
-        <v>0.0014</v>
+        <v>13.8331</v>
+      </c>
+      <c r="D15" s="0">
+        <v>22.8865</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +290,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>8.2905</v>
+        <v>12.776</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0015</v>
+        <v>24.8903</v>
+      </c>
+      <c r="D16" s="0">
+        <v>11.9212</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +304,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>8.9811</v>
+        <v>13.066</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0015</v>
+        <v>18.8646</v>
+      </c>
+      <c r="D17" s="0">
+        <v>15.8068</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +318,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>9.645</v>
+        <v>13.9189</v>
       </c>
       <c r="C18" s="0">
-        <v>0.0022</v>
+        <v>19.1709</v>
+      </c>
+      <c r="D18" s="0">
+        <v>14.3548</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +332,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>9.9267</v>
+        <v>14.9207</v>
       </c>
       <c r="C19" s="0">
-        <v>0.0014</v>
+        <v>19.5126</v>
+      </c>
+      <c r="D19" s="0">
+        <v>17.5808</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +346,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>10.0507</v>
+        <v>16.1647</v>
       </c>
       <c r="C20" s="0">
-        <v>0.0021</v>
+        <v>21.7242</v>
+      </c>
+      <c r="D20" s="0">
+        <v>17.0286</v>
       </c>
     </row>
     <row r="21">
@@ -297,7 +360,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>10.5133</v>
+        <v>18.3887</v>
       </c>
     </row>
   </sheetData>
